--- a/数据库表/已完成.xlsx
+++ b/数据库表/已完成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AixlProject\AiWeb\数据库表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3E86A5-F997-4C11-8DF3-53F998260BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD036C2B-61C3-4158-859E-C00A437757E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ai_scale_id</t>
   </si>
@@ -92,19 +92,158 @@
   </si>
   <si>
     <t>测试按照A部分练习→A部分测试→B部分练习→B部分测试的顺序进行。&amp;首先将A部分练习表放在被试面前，然后说：“这一页上有一些数字（指着数字）。请您从数字1开始（指着1），按照1到2（指着2）、2到3（指着3）、3到4（指着4），以此类推，从小到大的顺序连线，直至到达终点（指着终点）。请您以最快速度连线。准备，开始。”如果被试正确完成了练习，则进行A部分测试。如果被试在A部分练习时出错，应立即指出错误并加以解释。如果被试不能完成A部分练习，就握着他或她的手，引导被试从头到尾尝试一次。然后再让被试独自尝试。必要时可重复进行解释或尝试，直到被试能够成功完成练习，或也可发现被试显然不能完成任务。</t>
+  </si>
+  <si>
+    <r>
+      <t>蒙特利尔认知评估量表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>MoCA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>临床疗效总评量表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(CGI)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>缺血指数量表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>HIS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>日常生活能力量表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(ADL-14)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>神经精神科问卷（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>NPI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>汉密顿抑郁量表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(HAMD)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>老年抑郁量表（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>GDS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>一般自我效能感量表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>(GSES)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -130,8 +269,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -446,126 +591,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="41.21875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="16384" width="41.21875" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="302.39999999999998">
+      <c r="A2" s="1">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:4" ht="244.8">
+      <c r="A3" s="1">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:4" ht="288">
+      <c r="A4" s="1">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:4" ht="115.2">
+      <c r="A5" s="1">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:4" ht="409.6">
+      <c r="A6" s="1">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:4" ht="244.8">
+      <c r="A7" s="1">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:4" ht="388.8">
+      <c r="A8" s="1">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:4" ht="409.6">
+      <c r="A9" s="1">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="1">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" s="1">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>37</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
